--- a/Labs/Excel/Labs/Lab01/Zenevich_T091_FORMATTING.xlsx
+++ b/Labs/Excel/Labs/Lab01/Zenevich_T091_FORMATTING.xlsx
@@ -8,17 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asp1r\Documents\asp1rant3\GitHub Repositories\BasicsOfAlgorithmizationAndProgramming\Labs\Excel\Labs\Lab01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC05D048-6248-4ABF-8DA0-1594C1E3DC5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6A92F8-CA56-40EC-AFAE-46259493C3C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2985" yWindow="7890" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -408,7 +417,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -431,7 +440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -453,15 +462,66 @@
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B3" s="1">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1">
+        <v>23.42</v>
+      </c>
+      <c r="D3" s="1">
+        <v>-5</v>
+      </c>
+      <c r="E3" s="1">
+        <f>SUM(B3:D3)</f>
+        <v>33.42</v>
+      </c>
+      <c r="F3" s="1">
+        <f>E3</f>
+        <v>33.42</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B4" s="1">
+        <v>-23</v>
+      </c>
+      <c r="C4" s="1">
+        <v>62</v>
+      </c>
+      <c r="D4" s="1">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" ref="E4:E5" si="0">SUM(B4:D4)</f>
+        <v>50</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" ref="F4:F5" si="1">E4</f>
+        <v>50</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="B5" s="1">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="C5" s="1">
+        <v>-11.4</v>
+      </c>
+      <c r="D5" s="1">
+        <v>34</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="0"/>
+        <v>101</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="1"/>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
